--- a/data/blog_layout.xlsx
+++ b/data/blog_layout.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Hoja1_2" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t xml:space="preserve">Numero</t>
   </si>
@@ -43,10 +44,7 @@
     <t xml:space="preserve">contenido</t>
   </si>
   <si>
-    <t xml:space="preserve">Recurso-foto1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recurso-video1</t>
+    <t xml:space="preserve">Activo</t>
   </si>
   <si>
     <t xml:space="preserve">Planigrupo</t>
@@ -56,6 +54,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tendencias minoristas que debe conocer para 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sí</t>
   </si>
   <si>
     <t xml:space="preserve">I</t>
@@ -110,6 +111,9 @@
     <t xml:space="preserve">Preparar el centro comercial para las fiestas: una guía completa</t>
   </si>
   <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://planigrupo.mx/wp-content/uploads/planigrupo-org/sites/369/Planigrupo-Getting-Your-Shopping-Center-Holiday-Ready_-A-Comprehensive-Guide.png</t>
   </si>
   <si>
@@ -165,9 +169,6 @@
   </si>
   <si>
     <t xml:space="preserve">A medida que se acerca la temporada navideña, invertir tiempo y recursos en estos preparativos no solo elevará la experiencia de compra, sino que también contribuirá significativamente al éxito de tu centro comercial durante esta alegre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN</t>
   </si>
 </sst>
 </file>
@@ -287,7 +288,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -308,19 +309,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -328,11 +321,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -525,10 +514,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -536,7 +525,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="52.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="9.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="9.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -564,11 +553,9 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="38.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
@@ -582,375 +569,742 @@
         <v>2023</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="147.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="390.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="369.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="327.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="312.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="485.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="52.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="9.34"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D2" s="6" t="n">
         <v>2023</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="0" t="s">
+      <c r="H2" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="156.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="147.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="327.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="312.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="87.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="87.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="87.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="156.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="87.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="G21" s="6" t="s">
         <v>47</v>
       </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/blog_layout.xlsx
+++ b/data/blog_layout.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Hoja1_2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Hoja1_2_2" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Hoja1_2_2_2" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="87">
   <si>
     <t xml:space="preserve">Numero</t>
   </si>
@@ -169,6 +171,123 @@
   </si>
   <si>
     <t xml:space="preserve">A medida que se acerca la temporada navideña, invertir tiempo y recursos en estos preparativos no solo elevará la experiencia de compra, sino que también contribuirá significativamente al éxito de tu centro comercial durante esta alegre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los mejores consejos para promocionar tus tiendas minoristas durante las fiestas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://planigrupo.mx/wp-content/uploads/planigrupo-org/sites/369/Planigrupo-The-Best-Tips-For-Promoting-Your-Retail-Stores-For-The-Holidays.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La temporada navideña no es solo una época para decoraciones festivas y villancicos alegres, también es una excelente oportunidad para que las empresas minoristas brillen. Con las estrategias promocionales adecuadas, tu local puede atraer a más clientes y aumentar las ventas durante esta alegre época del año. Para ello:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Crea un ambiente acogedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las primeras impresiones importan. Adorna tu tienda con decoraciones navideñas llamativas que reflejen el espíritu de la temporada. Un ambiente cálido y acogedor puede atraer a los compradores a entrar y explorar. Considera escaparates temáticos que muestren tus mejores productos y ofrezcan una idea de lo que le espera en el interior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oferta Promociones Especiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atrae a los clientes con ofertas y descuentos específicos para las fiestas. Crea ofertas por tiempo limitado, ofertas de paquetes o incluso productos exclusivos con temática navideña. Considera la posibilidad de lanzar un programa de fidelización u ofrecer tarjetas de regalo con las compras para fomentar que regresen nuevamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aprovecha las redes sociales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Impresiona con tu espíritu navideño en redes sociales! Utiliza las plataformas de redes sociales para promocionar las ofertas navideñas de tu tienda, compartir contenido atractivo y realizar concursos u obsequios con temas navideños. Crea publicaciones visualmente atractivas que muestren tus productos en entornos festivos. Anima a los clientes a compartir sus experiencias de compras navideñas en tu tienda mediante el uso de hashtags específicos o la creación de oportunidades para compartir fotos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Organiza eventos en la tienda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organiza eventos especiales o talleres que se alineen con la temporada navideña. Por ejemplo, si vendes artículos para manualidades, considera la posibilidad de organizar sesiones de fabricación de adornos de bricolaje si te especializas en productos alimenticios, organiza eventos de degustación o demostraciones de cocina. Estos eventos no solo atraen a clientes potenciales, sino que también ofrecen un valor añadido y una experiencia memorable, fomentando la fidelización de los clientes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Personaliza la experiencia del cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haz que tus clientes se sientan especiales ofreciéndoles servicios personalizados. Capacita a tu personal para brindar un servicio al cliente excepcional, ayudando a los compradores a encontrar los regalos perfectos u ofreciendo servicios de envoltura de regalos. Considera la posibilidad de enviar felicitaciones navideñas personalizadas o descuentos exclusivos a los clientes leales por correo electrónico o redes sociales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colabora con empresas locales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asociarte con otras empresas locales puede crear una situación en la que todos salgan ganando. Realizar promociones cruzadas de los productos o servicios de los demás a través de esfuerzos de marketing conjuntos. Esta colaboración no solo amplía tu alcance, sino que también fomenta un sentido de apoyo comunitario durante la temporada festiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Optimiza la presencia en línea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la era digital actual, tener una fuerte presencia en línea es crucial. Asegúrate de que tu sitio web esta optimizado para las compras navideñas: actualízalo con banners, páginas de destino y guías de regalos con temas navideños. Implementa un proceso de compra en línea fácil y seguro para atender a los clientes que prefieren comprar desde la comodidad de sus hogares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ampliar el horario de la tienda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante las vacaciones, los horarios de las personas pueden volverse agitados. Amplía el horario de atención de tu tienda para adaptarse a las diferentes preferencias de los compradores, incluidos aquellos que prefieren comprar temprano en la mañana o en la noche.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al implementar estas estrategias, su tienda minorista no solo puede capitalizar la fiebre navideña, sino también crear una experiencia de compra memorable que haga que los clientes regresen durante todo el año. ¡Adopta el espíritu festivo, interactúa con tus clientes y convierte  esta temporada navideña en una muy exitosa para tu negocio!.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navegando en el cambio: estrategias para que los centros comerciales se adapten a la evolución del comportamiento del consumidor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://planigrupo.mx/wp-content/uploads/planigrupo-org/sites/369/Planigrupo-Navigating-Change_-Strategies-for-Shopping-Centers-to-Adapt-to-Evolving-Consumer-Behavior.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El comportamiento del consumidor está en constante cambio, impulsado por los avances tecnológicos, las redes sociales y las preferencias cambiantes. Para los centros comerciales, estos avances representan tanto desafíos como oportunidades. Para prosperar en este panorama dinámico, es fundamental adaptar estrategias que se alineen con la evolución de los comportamientos de los consumidores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adopción de experiencias omnicanal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la era digital, la frontera entre las compras en línea y offline continúa difuminándose. Los centros comerciales deben adoptar un enfoque omnicanal que integre a la perfección las experiencias físicas y digitales. Esto implica ofrecer plataformas en línea para navegar y comprar, servicios de click and collect y aprovechar tecnologías como la realidad aumentada para mejorar las experiencias en la tienda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Personalización y Customización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptar las experiencias a las preferencias individuales se está convirtiendo en la norma. Los centros comerciales pueden emplear el análisis de datos para comprender el comportamiento del consumidor, lo que permite recomendaciones personalizadas, marketing dirigido y servicios personalizados. Este toque personal fomenta una mayor lealtad y satisfacción del cliente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sostenibilidad y Responsabilidad Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los consumidores son cada vez más conscientes de la sostenibilidad y las prácticas éticas. Los centros comerciales pueden atraer y retener clientes demostrando un compromiso con la sostenibilidad ambiental, como la promoción de productos ecológicos, la reducción de la huella de carbono y el apoyo a causas sociales. La adopción de prácticas sostenibles no solo atrae a los consumidores conscientes, sino que también se alinea con las iniciativas globales para un futuro más verde.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Espacios centrados en la comunidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformar los centros comerciales en centros comunitarios puede crear un atractivo único. La incorporación de espacios comunes para eventos, entretenimiento y reuniones sociales fomenta el sentido de pertenencia. Al organizar talleres, conciertos o eventos culturales, los centros comerciales se convierten en destinos más allá de las meras compras, fomentando las visitas repetidas y construyendo una base de clientes leales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mejor servicio al cliente y conveniencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El servicio al cliente eficiente y personalizado sigue siendo la piedra angular del éxito del comercio minorista. Invertir en personal capacitado y tecnología para optimizar los servicios, como quioscos inteligentes para obtener información rápida o implementar políticas de devolución sin complicaciones, mejora significativamente la experiencia del cliente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agilidad y flexibilidad en los modelos de negocio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantenerse adaptable en un panorama que cambia rápidamente es crucial. Los centros comerciales deben estar preparados para evolucionar sus modelos de negocio rápidamente. Esto podría implicar la incorporación de tiendas pop-up para exhibir productos de moda, términos de arrendamiento flexibles o la adopción de nuevas tecnologías para adelantarse a las demandas de los consumidores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aprovechamiento de los datos y la tecnología</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es imperativo aprovechar el poder del big data y la tecnología. El uso de análisis predictivos para anticipar las tendencias de los consumidores, la implementación de la gestión de inventario impulsada por IA o el empleo de dispositivos inteligentes para mejorar las experiencias en la tienda, son formas de seguir siendo relevante y competitivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En un mundo en el que el comportamiento de los consumidores está en constante cambio, los centros comerciales deben evolucionar y adaptarse. Adoptar la innovación, centrarse en experiencias personalizadas y demostrar responsabilidad social son estrategias fundamentales. Al evolucionar junto con las preferencias cambiantes de los consumidores, los centros comerciales no solo pueden sobrevivir, sino prosperar en este panorama minorista en constante evolución. Adaptarse no se trata solo de mantenerse a flote; Se trata de convertirse en un destino preferido que resuene con las diversas necesidades y deseos de los consumidores modernos.</t>
   </si>
 </sst>
 </file>
@@ -288,7 +407,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -322,6 +441,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -965,7 +1092,7 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -1315,4 +1442,715 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="52.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="9.34"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="147.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="99.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="327.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="312.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="99.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" display="https://planigrupo.mx/wp-content/uploads/planigrupo-org/sites/369/Planigrupo-The-Best-Tips-For-Promoting-Your-Retail-Stores-For-The-Holidays.png"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="52.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="9.34"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="147.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="327.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="312.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="99.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="198.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data/blog_layout.xlsx
+++ b/data/blog_layout.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Hoja1_2_2_2" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Hoja1_2" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Hoja1_2_2" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Hoja1_2_2_2" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Hoja1" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -55,25 +55,205 @@
     <t xml:space="preserve">T</t>
   </si>
   <si>
+    <t xml:space="preserve">Navegando en el cambio: estrategias para que los centros comerciales se adapten a la evolución del comportamiento del consumidor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://planigrupo.mx/wp-content/uploads/planigrupo-org/sites/369/Planigrupo-Navigating-Change_-Strategies-for-Shopping-Centers-to-Adapt-to-Evolving-Consumer-Behavior.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El comportamiento del consumidor está en constante cambio, impulsado por los avances tecnológicos, las redes sociales y las preferencias cambiantes. Para los centros comerciales, estos avances representan tanto desafíos como oportunidades. Para prosperar en este panorama dinámico, es fundamental adaptar estrategias que se alineen con la evolución de los comportamientos de los consumidores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adopción de experiencias omnicanal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la era digital, la frontera entre las compras en línea y offline continúa difuminándose. Los centros comerciales deben adoptar un enfoque omnicanal que integre a la perfección las experiencias físicas y digitales. Esto implica ofrecer plataformas en línea para navegar y comprar, servicios de click and collect y aprovechar tecnologías como la realidad aumentada para mejorar las experiencias en la tienda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Personalización y Customización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptar las experiencias a las preferencias individuales se está convirtiendo en la norma. Los centros comerciales pueden emplear el análisis de datos para comprender el comportamiento del consumidor, lo que permite recomendaciones personalizadas, marketing dirigido y servicios personalizados. Este toque personal fomenta una mayor lealtad y satisfacción del cliente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sostenibilidad y Responsabilidad Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los consumidores son cada vez más conscientes de la sostenibilidad y las prácticas éticas. Los centros comerciales pueden atraer y retener clientes demostrando un compromiso con la sostenibilidad ambiental, como la promoción de productos ecológicos, la reducción de la huella de carbono y el apoyo a causas sociales. La adopción de prácticas sostenibles no solo atrae a los consumidores conscientes, sino que también se alinea con las iniciativas globales para un futuro más verde.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Espacios centrados en la comunidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformar los centros comerciales en centros comunitarios puede crear un atractivo único. La incorporación de espacios comunes para eventos, entretenimiento y reuniones sociales fomenta el sentido de pertenencia. Al organizar talleres, conciertos o eventos culturales, los centros comerciales se convierten en destinos más allá de las meras compras, fomentando las visitas repetidas y construyendo una base de clientes leales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mejor servicio al cliente y conveniencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El servicio al cliente eficiente y personalizado sigue siendo la piedra angular del éxito del comercio minorista. Invertir en personal capacitado y tecnología para optimizar los servicios, como quioscos inteligentes para obtener información rápida o implementar políticas de devolución sin complicaciones, mejora significativamente la experiencia del cliente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agilidad y flexibilidad en los modelos de negocio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantenerse adaptable en un panorama que cambia rápidamente es crucial. Los centros comerciales deben estar preparados para evolucionar sus modelos de negocio rápidamente. Esto podría implicar la incorporación de tiendas pop-up para exhibir productos de moda, términos de arrendamiento flexibles o la adopción de nuevas tecnologías para adelantarse a las demandas de los consumidores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aprovechamiento de los datos y la tecnología</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es imperativo aprovechar el poder del big data y la tecnología. El uso de análisis predictivos para anticipar las tendencias de los consumidores, la implementación de la gestión de inventario impulsada por IA o el empleo de dispositivos inteligentes para mejorar las experiencias en la tienda, son formas de seguir siendo relevante y competitivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En un mundo en el que el comportamiento de los consumidores está en constante cambio, los centros comerciales deben evolucionar y adaptarse. Adoptar la innovación, centrarse en experiencias personalizadas y demostrar responsabilidad social son estrategias fundamentales. Al evolucionar junto con las preferencias cambiantes de los consumidores, los centros comerciales no solo pueden sobrevivir, sino prosperar en este panorama minorista en constante evolución. Adaptarse no se trata solo de mantenerse a flote; Se trata de convertirse en un destino preferido que resuene con las diversas necesidades y deseos de los consumidores modernos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparar el centro comercial para las fiestas: una guía completa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://planigrupo.mx/wp-content/uploads/planigrupo-org/sites/369/Planigrupo-Getting-Your-Shopping-Center-Holiday-Ready_-A-Comprehensive-Guide.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a temporada navideña es un momento emocionante para los centros comerciales. No se trata solo de las multitudes bulliciosas y el ambiente alegre; Es una oportunidad para crear una experiencia memorable para los compradores y aumentar las ventas. Una preparación adecuada es clave para que tu centro comercial destaque durante estas fiestas. Aquí tienes una guía completa sobre cómo preparar tu centro comercial para las fiestas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Planifica tu decoración y ambiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tema y decoración: Decídete por un tema cautivador que resuene con el espíritu navideño. Ya sea que se trate de un país de las maravillas invernal, una exhibición de luces festivas o un tema navideño tradicional, asegúrate de que sea consistente en todo el centro comercial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iluminación: La iluminación brillante y festiva puede transformar el ambiente. Considera exhibiciones llamativas, decoraciones LED y pasillos bien iluminados para crear un ambiente acogedor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Música de temporada: La música marca el tono de las fiestas. Crea listas de reproducción que combinen melodías festivas con canciones populares para mantener a los compradores de buen humor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhibiciones interactivas: Involucra a los compradores con exhibiciones interactivas o lugares para tomar fotos que fomenten el intercambio en las redes sociales. Considera experiencias de realidad aumentada o cabinas de fotos temáticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horario de compras extendido: Acomoda los diferentes horarios extendiendo el horario de compras durante las horas pico. Las compras nocturnas o las aperturas a primera hora de la mañana pueden atraer a más clientes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicios de envoltura de regalos: Ofrece servicios de envoltura de regalos gratuitos o asequibles para aliviar el estrés navideño de los compradores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marketing y Promociones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campañas festivas: Crea campañas de marketing atractivas centradas en las fiestas. Utiliza las redes sociales, los boletines informativos por correo electrónico y la señalización en el centro para promocionar ofertas especiales, eventos y promociones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colaboraciones y eventos: Colabora con empresas locales, organiza espectáculos en vivo o eventos temáticos como ceremonias de encendido de árboles o visitas de Santa Claus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programas de fidelización: Implementa programas de fidelización o esquemas de recompensas para incentivar las visitas y compras repetidas durante la temporada navideña.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparación y seguridad del personal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitación: Asegúrate de que el personal esté capacitado en servicio al cliente, manejo de mayor tráfico peatonal e implementación de protocolos de seguridad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medidas de seguridad: Con más visitas de personas, prioriza la seguridad. Implementa medidas de control de multitudes, aumenta la frecuencia de limpieza y cumple con las pautas de salud locales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicio al cliente: Enfatiza un excelente servicio al cliente. El personal amable y bien informado puede mejorar la experiencia de compra en general.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparar tu centro comercial para las fiestas implica una combinación de creatividad, planificación estratégica y un enfoque centrado en el cliente. Al centrarse en la decoración, mejorar la experiencia del cliente, implementar estrategias de marketing efectivas, priorizar la seguridad y garantizar la preparación del personal, puede crear un ambiente acogedor y festivo que atraiga a los compradores y les deje recuerdos duraderos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A medida que se acerca la temporada navideña, invertir tiempo y recursos en estos preparativos no solo elevará la experiencia de compra, sino que también contribuirá significativamente al éxito de tu centro comercial durante esta alegre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los mejores consejos para promocionar tus tiendas minoristas durante las fiestas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://planigrupo.mx/wp-content/uploads/planigrupo-org/sites/369/Planigrupo-The-Best-Tips-For-Promoting-Your-Retail-Stores-For-The-Holidays.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La temporada navideña no es solo una época para decoraciones festivas y villancicos alegres, también es una excelente oportunidad para que las empresas minoristas brillen. Con las estrategias promocionales adecuadas, tu local puede atraer a más clientes y aumentar las ventas durante esta alegre época del año. Para ello:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Crea un ambiente acogedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las primeras impresiones importan. Adorna tu tienda con decoraciones navideñas llamativas que reflejen el espíritu de la temporada. Un ambiente cálido y acogedor puede atraer a los compradores a entrar y explorar. Considera escaparates temáticos que muestren tus mejores productos y ofrezcan una idea de lo que le espera en el interior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oferta Promociones Especiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atrae a los clientes con ofertas y descuentos específicos para las fiestas. Crea ofertas por tiempo limitado, ofertas de paquetes o incluso productos exclusivos con temática navideña. Considera la posibilidad de lanzar un programa de fidelización u ofrecer tarjetas de regalo con las compras para fomentar que regresen nuevamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aprovecha las redes sociales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Impresiona con tu espíritu navideño en redes sociales! Utiliza las plataformas de redes sociales para promocionar las ofertas navideñas de tu tienda, compartir contenido atractivo y realizar concursos u obsequios con temas navideños. Crea publicaciones visualmente atractivas que muestren tus productos en entornos festivos. Anima a los clientes a compartir sus experiencias de compras navideñas en tu tienda mediante el uso de hashtags específicos o la creación de oportunidades para compartir fotos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Organiza eventos en la tienda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organiza eventos especiales o talleres que se alineen con la temporada navideña. Por ejemplo, si vendes artículos para manualidades, considera la posibilidad de organizar sesiones de fabricación de adornos de bricolaje si te especializas en productos alimenticios, organiza eventos de degustación o demostraciones de cocina. Estos eventos no solo atraen a clientes potenciales, sino que también ofrecen un valor añadido y una experiencia memorable, fomentando la fidelización de los clientes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Personaliza la experiencia del cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haz que tus clientes se sientan especiales ofreciéndoles servicios personalizados. Capacita a tu personal para brindar un servicio al cliente excepcional, ayudando a los compradores a encontrar los regalos perfectos u ofreciendo servicios de envoltura de regalos. Considera la posibilidad de enviar felicitaciones navideñas personalizadas o descuentos exclusivos a los clientes leales por correo electrónico o redes sociales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colabora con empresas locales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asociarte con otras empresas locales puede crear una situación en la que todos salgan ganando. Realizar promociones cruzadas de los productos o servicios de los demás a través de esfuerzos de marketing conjuntos. Esta colaboración no solo amplía tu alcance, sino que también fomenta un sentido de apoyo comunitario durante la temporada festiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Optimiza la presencia en línea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la era digital actual, tener una fuerte presencia en línea es crucial. Asegúrate de que tu sitio web esta optimizado para las compras navideñas: actualízalo con banners, páginas de destino y guías de regalos con temas navideños. Implementa un proceso de compra en línea fácil y seguro para atender a los clientes que prefieren comprar desde la comodidad de sus hogares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ampliar el horario de la tienda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante las vacaciones, los horarios de las personas pueden volverse agitados. Amplía el horario de atención de tu tienda para adaptarse a las diferentes preferencias de los compradores, incluidos aquellos que prefieren comprar temprano en la mañana o en la noche.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al implementar estas estrategias, su tienda minorista no solo puede capitalizar la fiebre navideña, sino también crear una experiencia de compra memorable que haga que los clientes regresen durante todo el año. ¡Adopta el espíritu festivo, interactúa con tus clientes y convierte  esta temporada navideña en una muy exitosa para tu negocio!.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tendencias minoristas que debe conocer para 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Sí</t>
   </si>
   <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://planigrupo.mx/wp-content/uploads/planigrupo-org/sites/369/Planigrupo-Tendencias-minoristas-que-debe-conocer-para-2023.png</t>
   </si>
   <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
     <t xml:space="preserve">Los últimos años han planteado muchas dificultades para los minoristas, desde interrupciones en la cadena de suministro hasta inflación, inestabilidad económica y tensiones geopolíticas. Estos problemas han afectado tanto a los minoristas como a sus finanzas. Después de tres años de navegar por la pandemia, los minoristas miran hacia 2023 con renovado optimismo y un enfoque en la experiencia del cliente. Para adaptarse a la nueva normalidad, los minoristas están adoptando un modelo de compra híbrido y enfatizando una experiencia fluida. Esto promete ser un factor decisivo en el futuro del comercio minorista. A continuación se presentan cinco tendencias minoristas que tendrán el mayor impacto en la industria en 2023.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
   </si>
   <si>
     <t xml:space="preserve">Redes de medios minoristas</t>
@@ -108,186 +288,6 @@
   <si>
     <t xml:space="preserve">2023 está destinado a ser un año de reducción del consumismo, con más énfasis en la reparación, el reciclaje, la reutilización y el ahorro. Los minoristas ya comenzaron a adaptarse a este cambio, con empresas como REI, lululemon, Levi, Walmart, Patagonia, Everlane y Eileen Fisher, todas ofreciendo productos usados o una mayor transparencia en las cadenas de suministro. A medida que la Generación Z crece en influencia y gana más dinero, es probable que las empresas que dan prioridad a la sostenibilidad sean las ganadoras finales.
 Estas cinco de las tendencias minoristas mencionadas anteriormente son las más relevantes para la industria. Además, los minoristas deben considerar la remodelación de la fuerza laboral, como encontrar el equilibrio adecuado entre el trabajo en el sitio y remoto, así como la creación de una atmósfera de inclusión. Además, la comunidad debe ser una parte integral de la estrategia de inversión. A medida que el año se acerca a su fin, los minoristas deben permanecer enfocados en el viaje del comprador para un futuro exitoso.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparar el centro comercial para las fiestas: una guía completa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://planigrupo.mx/wp-content/uploads/planigrupo-org/sites/369/Planigrupo-Getting-Your-Shopping-Center-Holiday-Ready_-A-Comprehensive-Guide.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> a temporada navideña es un momento emocionante para los centros comerciales. No se trata solo de las multitudes bulliciosas y el ambiente alegre; Es una oportunidad para crear una experiencia memorable para los compradores y aumentar las ventas. Una preparación adecuada es clave para que tu centro comercial destaque durante estas fiestas. Aquí tienes una guía completa sobre cómo preparar tu centro comercial para las fiestas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Planifica tu decoración y ambiente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tema y decoración: Decídete por un tema cautivador que resuene con el espíritu navideño. Ya sea que se trate de un país de las maravillas invernal, una exhibición de luces festivas o un tema navideño tradicional, asegúrate de que sea consistente en todo el centro comercial.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iluminación: La iluminación brillante y festiva puede transformar el ambiente. Considera exhibiciones llamativas, decoraciones LED y pasillos bien iluminados para crear un ambiente acogedor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Música de temporada: La música marca el tono de las fiestas. Crea listas de reproducción que combinen melodías festivas con canciones populares para mantener a los compradores de buen humor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exhibiciones interactivas: Involucra a los compradores con exhibiciones interactivas o lugares para tomar fotos que fomenten el intercambio en las redes sociales. Considera experiencias de realidad aumentada o cabinas de fotos temáticas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horario de compras extendido: Acomoda los diferentes horarios extendiendo el horario de compras durante las horas pico. Las compras nocturnas o las aperturas a primera hora de la mañana pueden atraer a más clientes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servicios de envoltura de regalos: Ofrece servicios de envoltura de regalos gratuitos o asequibles para aliviar el estrés navideño de los compradores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Marketing y Promociones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campañas festivas: Crea campañas de marketing atractivas centradas en las fiestas. Utiliza las redes sociales, los boletines informativos por correo electrónico y la señalización en el centro para promocionar ofertas especiales, eventos y promociones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colaboraciones y eventos: Colabora con empresas locales, organiza espectáculos en vivo o eventos temáticos como ceremonias de encendido de árboles o visitas de Santa Claus.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programas de fidelización: Implementa programas de fidelización o esquemas de recompensas para incentivar las visitas y compras repetidas durante la temporada navideña.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparación y seguridad del personal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacitación: Asegúrate de que el personal esté capacitado en servicio al cliente, manejo de mayor tráfico peatonal e implementación de protocolos de seguridad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medidas de seguridad: Con más visitas de personas, prioriza la seguridad. Implementa medidas de control de multitudes, aumenta la frecuencia de limpieza y cumple con las pautas de salud locales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servicio al cliente: Enfatiza un excelente servicio al cliente. El personal amable y bien informado puede mejorar la experiencia de compra en general.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparar tu centro comercial para las fiestas implica una combinación de creatividad, planificación estratégica y un enfoque centrado en el cliente. Al centrarse en la decoración, mejorar la experiencia del cliente, implementar estrategias de marketing efectivas, priorizar la seguridad y garantizar la preparación del personal, puede crear un ambiente acogedor y festivo que atraiga a los compradores y les deje recuerdos duraderos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A medida que se acerca la temporada navideña, invertir tiempo y recursos en estos preparativos no solo elevará la experiencia de compra, sino que también contribuirá significativamente al éxito de tu centro comercial durante esta alegre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los mejores consejos para promocionar tus tiendas minoristas durante las fiestas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://planigrupo.mx/wp-content/uploads/planigrupo-org/sites/369/Planigrupo-The-Best-Tips-For-Promoting-Your-Retail-Stores-For-The-Holidays.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La temporada navideña no es solo una época para decoraciones festivas y villancicos alegres, también es una excelente oportunidad para que las empresas minoristas brillen. Con las estrategias promocionales adecuadas, tu local puede atraer a más clientes y aumentar las ventas durante esta alegre época del año. Para ello:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Crea un ambiente acogedor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las primeras impresiones importan. Adorna tu tienda con decoraciones navideñas llamativas que reflejen el espíritu de la temporada. Un ambiente cálido y acogedor puede atraer a los compradores a entrar y explorar. Considera escaparates temáticos que muestren tus mejores productos y ofrezcan una idea de lo que le espera en el interior.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oferta Promociones Especiales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atrae a los clientes con ofertas y descuentos específicos para las fiestas. Crea ofertas por tiempo limitado, ofertas de paquetes o incluso productos exclusivos con temática navideña. Considera la posibilidad de lanzar un programa de fidelización u ofrecer tarjetas de regalo con las compras para fomentar que regresen nuevamente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aprovecha las redes sociales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¡Impresiona con tu espíritu navideño en redes sociales! Utiliza las plataformas de redes sociales para promocionar las ofertas navideñas de tu tienda, compartir contenido atractivo y realizar concursos u obsequios con temas navideños. Crea publicaciones visualmente atractivas que muestren tus productos en entornos festivos. Anima a los clientes a compartir sus experiencias de compras navideñas en tu tienda mediante el uso de hashtags específicos o la creación de oportunidades para compartir fotos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Organiza eventos en la tienda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organiza eventos especiales o talleres que se alineen con la temporada navideña. Por ejemplo, si vendes artículos para manualidades, considera la posibilidad de organizar sesiones de fabricación de adornos de bricolaje si te especializas en productos alimenticios, organiza eventos de degustación o demostraciones de cocina. Estos eventos no solo atraen a clientes potenciales, sino que también ofrecen un valor añadido y una experiencia memorable, fomentando la fidelización de los clientes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Personaliza la experiencia del cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haz que tus clientes se sientan especiales ofreciéndoles servicios personalizados. Capacita a tu personal para brindar un servicio al cliente excepcional, ayudando a los compradores a encontrar los regalos perfectos u ofreciendo servicios de envoltura de regalos. Considera la posibilidad de enviar felicitaciones navideñas personalizadas o descuentos exclusivos a los clientes leales por correo electrónico o redes sociales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Colabora con empresas locales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asociarte con otras empresas locales puede crear una situación en la que todos salgan ganando. Realizar promociones cruzadas de los productos o servicios de los demás a través de esfuerzos de marketing conjuntos. Esta colaboración no solo amplía tu alcance, sino que también fomenta un sentido de apoyo comunitario durante la temporada festiva.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Optimiza la presencia en línea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En la era digital actual, tener una fuerte presencia en línea es crucial. Asegúrate de que tu sitio web esta optimizado para las compras navideñas: actualízalo con banners, páginas de destino y guías de regalos con temas navideños. Implementa un proceso de compra en línea fácil y seguro para atender a los clientes que prefieren comprar desde la comodidad de sus hogares.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ampliar el horario de la tienda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durante las vacaciones, los horarios de las personas pueden volverse agitados. Amplía el horario de atención de tu tienda para adaptarse a las diferentes preferencias de los compradores, incluidos aquellos que prefieren comprar temprano en la mañana o en la noche.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Al implementar estas estrategias, su tienda minorista no solo puede capitalizar la fiebre navideña, sino también crear una experiencia de compra memorable que haga que los clientes regresen durante todo el año. ¡Adopta el espíritu festivo, interactúa con tus clientes y convierte  esta temporada navideña en una muy exitosa para tu negocio!.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navegando en el cambio: estrategias para que los centros comerciales se adapten a la evolución del comportamiento del consumidor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://planigrupo.mx/wp-content/uploads/planigrupo-org/sites/369/Planigrupo-Navigating-Change_-Strategies-for-Shopping-Centers-to-Adapt-to-Evolving-Consumer-Behavior.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El comportamiento del consumidor está en constante cambio, impulsado por los avances tecnológicos, las redes sociales y las preferencias cambiantes. Para los centros comerciales, estos avances representan tanto desafíos como oportunidades. Para prosperar en este panorama dinámico, es fundamental adaptar estrategias que se alineen con la evolución de los comportamientos de los consumidores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adopción de experiencias omnicanal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En la era digital, la frontera entre las compras en línea y offline continúa difuminándose. Los centros comerciales deben adoptar un enfoque omnicanal que integre a la perfección las experiencias físicas y digitales. Esto implica ofrecer plataformas en línea para navegar y comprar, servicios de click and collect y aprovechar tecnologías como la realidad aumentada para mejorar las experiencias en la tienda.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Personalización y Customización</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adaptar las experiencias a las preferencias individuales se está convirtiendo en la norma. Los centros comerciales pueden emplear el análisis de datos para comprender el comportamiento del consumidor, lo que permite recomendaciones personalizadas, marketing dirigido y servicios personalizados. Este toque personal fomenta una mayor lealtad y satisfacción del cliente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sostenibilidad y Responsabilidad Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los consumidores son cada vez más conscientes de la sostenibilidad y las prácticas éticas. Los centros comerciales pueden atraer y retener clientes demostrando un compromiso con la sostenibilidad ambiental, como la promoción de productos ecológicos, la reducción de la huella de carbono y el apoyo a causas sociales. La adopción de prácticas sostenibles no solo atrae a los consumidores conscientes, sino que también se alinea con las iniciativas globales para un futuro más verde.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Espacios centrados en la comunidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformar los centros comerciales en centros comunitarios puede crear un atractivo único. La incorporación de espacios comunes para eventos, entretenimiento y reuniones sociales fomenta el sentido de pertenencia. Al organizar talleres, conciertos o eventos culturales, los centros comerciales se convierten en destinos más allá de las meras compras, fomentando las visitas repetidas y construyendo una base de clientes leales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mejor servicio al cliente y conveniencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El servicio al cliente eficiente y personalizado sigue siendo la piedra angular del éxito del comercio minorista. Invertir en personal capacitado y tecnología para optimizar los servicios, como quioscos inteligentes para obtener información rápida o implementar políticas de devolución sin complicaciones, mejora significativamente la experiencia del cliente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Agilidad y flexibilidad en los modelos de negocio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mantenerse adaptable en un panorama que cambia rápidamente es crucial. Los centros comerciales deben estar preparados para evolucionar sus modelos de negocio rápidamente. Esto podría implicar la incorporación de tiendas pop-up para exhibir productos de moda, términos de arrendamiento flexibles o la adopción de nuevas tecnologías para adelantarse a las demandas de los consumidores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aprovechamiento de los datos y la tecnología</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es imperativo aprovechar el poder del big data y la tecnología. El uso de análisis predictivos para anticipar las tendencias de los consumidores, la implementación de la gestión de inventario impulsada por IA o el empleo de dispositivos inteligentes para mejorar las experiencias en la tienda, son formas de seguir siendo relevante y competitivo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En un mundo en el que el comportamiento de los consumidores está en constante cambio, los centros comerciales deben evolucionar y adaptarse. Adoptar la innovación, centrarse en experiencias personalizadas y demostrar responsabilidad social son estrategias fundamentales. Al evolucionar junto con las preferencias cambiantes de los consumidores, los centros comerciales no solo pueden sobrevivir, sino prosperar en este panorama minorista en constante evolución. Adaptarse no se trata solo de mantenerse a flote; Se trata de convertirse en un destino preferido que resuene con las diversas necesidades y deseos de los consumidores modernos.</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -428,15 +428,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -444,11 +436,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -465,9 +457,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -475,46 +467,46 @@
         <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="18a303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="0369a3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="a33e03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="8e03a3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="c99c00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="c9211e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0000ee"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="551a8b"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -522,67 +514,25 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -601,35 +551,11 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -643,8 +569,8 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -682,394 +608,294 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="n">
+      <c r="B2" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="n">
         <v>2023</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="6"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="147.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="7" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="390.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="4" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="7" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="369.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="7" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="7" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="327.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="7" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="312.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="7" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="485.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="4" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G19" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="99.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="198.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G20" s="6"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G21" s="6"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="7"/>
-    </row>
-    <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1"/>
@@ -1093,7 +919,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1135,26 +961,26 @@
       <c r="A2" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="5" t="n">
         <v>2023</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
+      <c r="G2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1162,7 +988,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -1170,144 +996,144 @@
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>30</v>
+      <c r="G4" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>31</v>
+      <c r="G5" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>32</v>
+      <c r="G6" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>33</v>
+      <c r="G7" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>34</v>
+      <c r="G8" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>35</v>
+      <c r="G9" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="327.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>36</v>
+      <c r="G10" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>37</v>
+      <c r="G11" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="312.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>38</v>
+      <c r="G12" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>39</v>
+      <c r="G13" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>40</v>
+      <c r="G14" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>41</v>
+      <c r="G15" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>42</v>
+      <c r="G16" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>43</v>
+      <c r="G17" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>44</v>
+      <c r="G18" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>45</v>
+      <c r="G19" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>46</v>
+      <c r="G20" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>47</v>
+      <c r="G21" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,7 +1146,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
@@ -1338,7 +1164,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
@@ -1347,7 +1173,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
@@ -1365,7 +1191,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="7"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
@@ -1374,7 +1200,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
@@ -1383,7 +1209,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="7"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
@@ -1392,7 +1218,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="7"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
@@ -1401,7 +1227,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="7"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
@@ -1419,7 +1245,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="7"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
@@ -1452,7 +1278,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1460,7 +1286,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="52.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="9.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="9.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1494,26 +1320,26 @@
       <c r="A2" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="5" t="n">
         <v>2023</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>49</v>
+      <c r="G2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,7 +1347,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -1529,144 +1355,144 @@
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>51</v>
+      <c r="G4" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>52</v>
+      <c r="G5" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>53</v>
+      <c r="G6" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>54</v>
+      <c r="G7" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="99.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>55</v>
+      <c r="G8" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>56</v>
+      <c r="G9" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="327.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>57</v>
+      <c r="G10" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>58</v>
+      <c r="F11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="312.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>59</v>
+      <c r="G12" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>60</v>
+      <c r="F13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>61</v>
+      <c r="G14" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>62</v>
+      <c r="G15" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>63</v>
+      <c r="G16" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>64</v>
+      <c r="G17" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>65</v>
+      <c r="G18" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>66</v>
+      <c r="G19" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>67</v>
+      <c r="G20" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="99.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>68</v>
+      <c r="G21" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1679,7 +1505,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
@@ -1697,7 +1523,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
@@ -1706,7 +1532,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
@@ -1724,7 +1550,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="7"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
@@ -1733,7 +1559,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
@@ -1742,7 +1568,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="7"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
@@ -1751,7 +1577,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="7"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
@@ -1760,7 +1586,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="7"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
@@ -1778,7 +1604,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="7"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
@@ -1813,8 +1639,8 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1822,7 +1648,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="52.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="9.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="9.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1852,294 +1678,394 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="n">
-        <v>2023</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="147.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>76</v>
       </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="390.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="369.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="327.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="312.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="99.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="9" t="s">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="198.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="485.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>86</v>
       </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G20" s="9"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G21" s="9"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1"/>

--- a/data/blog_layout.xlsx
+++ b/data/blog_layout.xlsx
@@ -5,13 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1_2_2_2" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Hoja1_2" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Hoja1_2_2" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="Hoja1" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Hoja1_3" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Hoja1_3_2" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Hoja1_3_2_2" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="Hoja1_3_2_2_2" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="Hoja1_3_2_2_2_2" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="Hoja1_3_2_2_2_2_2" sheetId="10" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="93">
   <si>
     <t xml:space="preserve">Numero</t>
   </si>
@@ -288,6 +294,24 @@
   <si>
     <t xml:space="preserve">2023 está destinado a ser un año de reducción del consumismo, con más énfasis en la reparación, el reciclaje, la reutilización y el ahorro. Los minoristas ya comenzaron a adaptarse a este cambio, con empresas como REI, lululemon, Levi, Walmart, Patagonia, Everlane y Eileen Fisher, todas ofreciendo productos usados o una mayor transparencia en las cadenas de suministro. A medida que la Generación Z crece en influencia y gana más dinero, es probable que las empresas que dan prioridad a la sostenibilidad sean las ganadoras finales.
 Estas cinco de las tendencias minoristas mencionadas anteriormente son las más relevantes para la industria. Además, los minoristas deben considerar la remodelación de la fuerza laboral, como encontrar el equilibrio adecuado entre el trabajo en el sitio y remoto, así como la creación de una atmósfera de inclusión. Además, la comunidad debe ser una parte integral de la estrategia de inversión. A medida que el año se acerca a su fin, los minoristas deben permanecer enfocados en el viaje del comprador para un futuro exitoso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post de Ejemplo No.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post de Ejemplo No.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post de Ejemplo No.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post de Ejemplo No.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post de Ejemplo No.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post de Ejemplo No.10</t>
   </si>
 </sst>
 </file>
@@ -569,8 +593,8 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -896,6 +920,455 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="52.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="9.34"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="147.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="390.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="369.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="327.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="312.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="485.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1"/>
@@ -2079,4 +2552,2249 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="52.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="9.34"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="147.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="390.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="369.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="327.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="312.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="485.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="52.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="9.34"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="147.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="390.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="369.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="327.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="312.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="485.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="52.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="9.34"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="147.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="390.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="369.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="327.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="312.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="485.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="52.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="9.34"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="147.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="390.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="369.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="327.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="312.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="485.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="52.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="9.34"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="147.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="390.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="369.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="327.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="312.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="485.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data/blog_layout.xlsx
+++ b/data/blog_layout.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1_2_2_2" sheetId="1" state="visible" r:id="rId3"/>
@@ -593,7 +593,7 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -942,7 +942,7 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -951,7 +951,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="52.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="9.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="9.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1391,7 +1391,7 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1750,7 +1750,7 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2112,7 +2112,7 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2561,7 +2561,7 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2570,7 +2570,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="52.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="9.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="9.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3010,7 +3010,7 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3019,7 +3019,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="52.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="9.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="9.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3459,7 +3459,7 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -3468,7 +3468,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="52.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="9.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="9.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3908,7 +3908,7 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3917,7 +3917,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="52.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="9.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="9.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4357,7 +4357,7 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4366,7 +4366,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="52.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="9.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="9.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
